--- a/40Missions_2.xlsx
+++ b/40Missions_2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magneton\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="11475" windowHeight="7230" firstSheet="8" activeTab="10"/>
   </bookViews>
@@ -477,6 +482,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -524,7 +532,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -559,7 +567,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5436,10 +5444,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E54"/>
+      <selection activeCell="A3" sqref="A3:E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5483,16 +5491,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="E3">
-        <v>1.505199322349037</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5500,16 +5508,16 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.505199322349037</v>
+        <v>7.25</v>
       </c>
       <c r="E4">
-        <v>7.9051993223490378</v>
+        <v>7.5972222222222223</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5517,16 +5525,16 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>7.5972222222222223</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>8.5972222222222214</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -5534,16 +5542,16 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>8.5972222222222214</v>
       </c>
       <c r="E6">
-        <v>14.4</v>
+        <v>8.8819444444444429</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -5551,101 +5559,101 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>9.25</v>
+        <v>8.8819444444444429</v>
       </c>
       <c r="E7">
-        <v>12.25</v>
+        <v>16.881944444444443</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>12.25</v>
+        <v>4.5</v>
       </c>
       <c r="E8">
-        <v>12.658120692932863</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>12.658120692932863</v>
+        <v>5.5</v>
       </c>
       <c r="E9">
-        <v>13.408120692932863</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>13.895330668877609</v>
+        <v>6.5</v>
       </c>
       <c r="E10">
-        <v>14.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>14.5</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>15.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>15.4</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>17.699524407350356</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -5659,10 +5667,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.9195853778633452</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>10.104166666666666</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -5670,33 +5678,33 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>10.104166666666666</v>
       </c>
       <c r="E14">
-        <v>10.4</v>
+        <v>11.854166666666666</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>2</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>10.4</v>
-      </c>
       <c r="E15">
-        <v>12.480414622136655</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5704,16 +5712,16 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>2.7721943106934739</v>
+        <v>9.25</v>
       </c>
       <c r="E16">
-        <v>4.5</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -5721,16 +5729,16 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>4.5</v>
+        <v>10.25</v>
       </c>
       <c r="E17">
-        <v>5.4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5738,16 +5746,16 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>6.0961126394649119</v>
+        <v>11</v>
       </c>
       <c r="E18">
-        <v>6.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -5755,16 +5763,16 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="E19">
-        <v>7.4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -5778,10 +5786,10 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.4</v>
+        <v>12</v>
       </c>
       <c r="E20">
-        <v>7.7824264635194593</v>
+        <v>12.145833333333334</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -5789,89 +5797,89 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>7.7824264635194593</v>
+        <v>12.145833333333334</v>
       </c>
       <c r="E21">
-        <v>8.6824264635194588</v>
+        <v>13.395833333333334</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
         <v>3</v>
       </c>
-      <c r="B22">
-        <v>13</v>
-      </c>
       <c r="C22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>9.9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>9.9</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>10.282426463519458</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>5</v>
       </c>
-      <c r="D24">
-        <v>10.282426463519458</v>
-      </c>
       <c r="E24">
-        <v>11.332426463519459</v>
+        <v>5.2361111111111107</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>11.332426463519459</v>
+        <v>5.2361111111111107</v>
       </c>
       <c r="E25">
-        <v>13.34123519010345</v>
+        <v>6.2361111111111107</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -5880,61 +5888,61 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>8.8022028073546004</v>
+        <v>6.2361111111111107</v>
       </c>
       <c r="E26">
-        <v>11</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="E27">
-        <v>11.9</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="E28">
-        <v>11.9</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>11.9</v>
+        <v>9.75</v>
       </c>
       <c r="E29">
-        <v>14.099502784722038</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -5948,10 +5956,10 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>11.790291308792039</v>
+        <v>10.75</v>
       </c>
       <c r="E30">
-        <v>14</v>
+        <v>10.854166666666666</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -5959,16 +5967,16 @@
         <v>5</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>10.854166666666666</v>
       </c>
       <c r="E31">
-        <v>14.9</v>
+        <v>11.854166666666666</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -5982,10 +5990,10 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>16.05</v>
+        <v>11.854166666666666</v>
       </c>
       <c r="E32">
-        <v>16.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -5993,16 +6001,16 @@
         <v>5</v>
       </c>
       <c r="B33">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C33">
         <v>5</v>
       </c>
       <c r="D33">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="E33">
-        <v>17.399999999999999</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -6016,10 +6024,10 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>18.846112639464913</v>
+        <v>13</v>
       </c>
       <c r="E34">
-        <v>19.25</v>
+        <v>13.0625</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -6027,16 +6035,16 @@
         <v>5</v>
       </c>
       <c r="B35">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C35">
         <v>5</v>
       </c>
       <c r="D35">
-        <v>19.25</v>
+        <v>13.0625</v>
       </c>
       <c r="E35">
-        <v>20.3</v>
+        <v>14.0625</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -6044,72 +6052,72 @@
         <v>5</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>20.3</v>
+        <v>14</v>
       </c>
       <c r="E36">
-        <v>21.893443597997745</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>14.494800677650963</v>
+        <v>14.25</v>
       </c>
       <c r="E37">
-        <v>16</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>15.25</v>
       </c>
       <c r="E38">
-        <v>22.4</v>
+        <v>15.381944444444445</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39">
         <v>6</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
       <c r="D39">
-        <v>22.4</v>
+        <v>15.381944444444445</v>
       </c>
       <c r="E39">
-        <v>23.905199322349034</v>
+        <v>16.381944444444443</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -6118,15 +6126,15 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>14.25</v>
+        <v>16.381944444444443</v>
       </c>
       <c r="E40">
-        <v>16.313143838902175</v>
+        <v>16.590277777777775</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B41">
         <v>22</v>
@@ -6135,15 +6143,15 @@
         <v>5</v>
       </c>
       <c r="D41">
-        <v>16.313143838902175</v>
+        <v>16.590277777777775</v>
       </c>
       <c r="E41">
-        <v>17.213143838902173</v>
+        <v>18.090277777777775</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -6152,66 +6160,66 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>17.213143838902173</v>
+        <v>18.090277777777775</v>
       </c>
       <c r="E42">
-        <v>18.199614821749616</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B43">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C43">
         <v>5</v>
       </c>
       <c r="D43">
-        <v>18.199614821749616</v>
+        <v>19.25</v>
       </c>
       <c r="E43">
-        <v>19.099614821749615</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D44">
-        <v>19.324999999999999</v>
+        <v>13.25</v>
       </c>
       <c r="E44">
-        <v>20</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="E45">
-        <v>20.9</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6220,146 +6228,316 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>20.9</v>
+        <v>15.5</v>
       </c>
       <c r="E46">
-        <v>22.983941577875925</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>16.919585377863346</v>
+        <v>16.5</v>
       </c>
       <c r="E47">
-        <v>19</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B48">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="E48">
-        <v>19.899999999999999</v>
+        <v>17.715277777777779</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>19.899999999999999</v>
+        <v>17.715277777777779</v>
       </c>
       <c r="E49">
-        <v>19.899999999999999</v>
+        <v>18.715277777777779</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B50">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>19.899999999999999</v>
+        <v>18.715277777777779</v>
       </c>
       <c r="E50">
-        <v>20.799999999999997</v>
+        <v>19.006944444444446</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>20.799999999999997</v>
+        <v>19.006944444444446</v>
       </c>
       <c r="E51">
-        <v>22.880414622136652</v>
+        <v>27.006944444444446</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D52">
-        <v>18.25</v>
+        <v>16.5</v>
       </c>
       <c r="E52">
-        <v>20.330414622136654</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53">
-        <v>20.330414622136654</v>
+        <v>15.25</v>
       </c>
       <c r="E53">
-        <v>26.730414622136657</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>39</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>15.5</v>
+      </c>
+      <c r="E54">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>16.5</v>
+      </c>
+      <c r="E55">
+        <v>16.708333333333332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>8</v>
+      </c>
+      <c r="B56">
+        <v>27</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>16.708333333333332</v>
+      </c>
+      <c r="E56">
+        <v>17.708333333333332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>9</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>26.730414622136657</v>
-      </c>
-      <c r="E54">
-        <v>28.810829244273311</v>
+      <c r="B57">
+        <v>38</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>18.25</v>
+      </c>
+      <c r="E57">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>29</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>19.25</v>
+      </c>
+      <c r="E58">
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>20.25</v>
+      </c>
+      <c r="E59">
+        <v>20.479166666666668</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>35</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>20.479166666666668</v>
+      </c>
+      <c r="E60">
+        <v>21.479166666666668</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>21.479166666666668</v>
+      </c>
+      <c r="E61">
+        <v>21.708333333333336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>21.708333333333336</v>
+      </c>
+      <c r="E62">
+        <v>29.708333333333336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>21.229166666666668</v>
+      </c>
+      <c r="E63">
+        <v>21.458333333333336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>9</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>21.458333333333336</v>
+      </c>
+      <c r="E64">
+        <v>29.458333333333336</v>
       </c>
     </row>
   </sheetData>
